--- a/DOC/升级经验时间验证.xlsx
+++ b/DOC/升级经验时间验证.xlsx
@@ -140,8 +140,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -212,7 +213,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -267,10 +268,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -278,6 +279,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -958,24 +962,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="61324288"/>
-        <c:axId val="79626240"/>
+        <c:axId val="93595520"/>
+        <c:axId val="93597056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61324288"/>
+        <c:axId val="93595520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79626240"/>
+        <c:crossAx val="93597056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79626240"/>
+        <c:axId val="93597056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -983,7 +987,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61324288"/>
+        <c:crossAx val="93595520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -995,7 +999,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4376,8 +4380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4385,8 +4389,8 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="6"/>
-    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="17.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" style="22" customWidth="1"/>
     <col min="15" max="16" width="17.25" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4425,10 +4429,10 @@
       <c r="L1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="22" t="s">
         <v>22</v>
       </c>
       <c r="O1" t="s">
@@ -4453,16 +4457,16 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="22">
         <f>((C2-1)^3*L2)/3+800</f>
         <v>800</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A3" s="18">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="19">
         <f>SUM(L3:L7)/5</f>
         <v>70.390226250000012</v>
       </c>
@@ -4505,11 +4509,11 @@
         <f>SUM(H3:K3)/100</f>
         <v>50.300958749999992</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="22">
         <f t="shared" ref="M3:M66" si="0">((C3-1)^3*L3)/3+800</f>
         <v>800</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="22">
         <f>SUM($M$3:M3)</f>
         <v>800</v>
       </c>
@@ -4519,8 +4523,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
       <c r="C4">
         <v>2</v>
       </c>
@@ -4560,18 +4564,18 @@
         <f t="shared" ref="L4:L12" si="9">SUM(H4:K4)/100</f>
         <v>60.345592500000002</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="22">
         <f t="shared" si="0"/>
         <v>820.11519750000002</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="22">
         <f>SUM($M$3:M4)</f>
         <v>1620.1151975</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5">
         <v>3</v>
       </c>
@@ -4611,18 +4615,18 @@
         <f t="shared" si="9"/>
         <v>70.390226250000012</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="22">
         <f t="shared" si="0"/>
         <v>987.70726999999999</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="22">
         <f>SUM($M$3:M5)</f>
         <v>2607.8224675000001</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6">
         <v>4</v>
       </c>
@@ -4662,18 +4666,18 @@
         <f t="shared" si="9"/>
         <v>80.434860000000015</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="22">
         <f t="shared" si="0"/>
         <v>1523.91374</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="22">
         <f>SUM($M$3:M6)</f>
         <v>4131.7362075000001</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="17.25" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7">
         <v>5</v>
       </c>
@@ -4713,11 +4717,11 @@
         <f t="shared" si="9"/>
         <v>90.479493750000003</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="22">
         <f t="shared" si="0"/>
         <v>2730.2291999999998</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="22">
         <f>SUM($M$3:M7)</f>
         <v>6861.9654074999999</v>
       </c>
@@ -4743,10 +4747,10 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A8" s="19">
+      <c r="A8" s="18">
         <v>2</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="19">
         <f>SUM(L8:L12)/5</f>
         <v>120.613395</v>
       </c>
@@ -4789,18 +4793,18 @@
         <f t="shared" si="9"/>
         <v>100.52412749999998</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="22">
         <f t="shared" si="0"/>
         <v>4988.5053124999986</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="22">
         <f>SUM($M$3:M8)</f>
         <v>11850.470719999998</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="5" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
       <c r="C9">
         <v>7</v>
       </c>
@@ -4840,18 +4844,18 @@
         <f t="shared" si="9"/>
         <v>110.56876125000001</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="22">
         <f t="shared" si="0"/>
         <v>8760.9508100000021</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="22">
         <f>SUM($M$3:M9)</f>
         <v>20611.42153</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="5" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
       <c r="C10">
         <v>8</v>
       </c>
@@ -4891,18 +4895,18 @@
         <f t="shared" si="9"/>
         <v>120.613395</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="22">
         <f t="shared" si="0"/>
         <v>14590.131495</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="22">
         <f>SUM($M$3:M10)</f>
         <v>35201.553025000001</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="5" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
       <c r="C11">
         <v>9</v>
       </c>
@@ -4942,18 +4946,18 @@
         <f t="shared" si="9"/>
         <v>130.65802875</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="22">
         <f t="shared" si="0"/>
         <v>23098.970239999999</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="22">
         <f>SUM($M$3:M11)</f>
         <v>58300.523264999996</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="5" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
       <c r="C12">
         <v>10</v>
       </c>
@@ -4993,11 +4997,11 @@
         <f t="shared" si="9"/>
         <v>140.7026625</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="22">
         <f t="shared" si="0"/>
         <v>34990.746987500002</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="22">
         <f>SUM($M$3:M12)</f>
         <v>93291.270252499991</v>
       </c>
@@ -5026,7 +5030,7 @@
       <c r="A13" s="20">
         <v>3</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="19">
         <f t="shared" ref="B13" si="10">SUM(L13:L17)/5</f>
         <v>170.83656374999998</v>
       </c>
@@ -5069,18 +5073,18 @@
         <f t="shared" ref="L13:L18" si="16">SUM(H13:K13)/100</f>
         <v>150.74729625000001</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="22">
         <f t="shared" si="0"/>
         <v>51049.098750000005</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="22">
         <f>SUM($M$3:M13)</f>
         <v>144340.3690025</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="5" customFormat="1" ht="17.25" customHeight="1">
       <c r="A14" s="20"/>
-      <c r="B14" s="18"/>
+      <c r="B14" s="19"/>
       <c r="C14">
         <v>12</v>
       </c>
@@ -5120,18 +5124,18 @@
         <f t="shared" si="16"/>
         <v>160.79192999999998</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="22">
         <f t="shared" si="0"/>
         <v>72138.019609999988</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="22">
         <f>SUM($M$3:M14)</f>
         <v>216478.38861249998</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="5" customFormat="1" ht="13.5" customHeight="1">
       <c r="A15" s="20"/>
-      <c r="B15" s="18"/>
+      <c r="B15" s="19"/>
       <c r="C15">
         <v>13</v>
       </c>
@@ -5171,18 +5175,18 @@
         <f t="shared" si="16"/>
         <v>170.83656375000001</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="22">
         <f t="shared" si="0"/>
         <v>99201.860719999997</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="22">
         <f>SUM($M$3:M15)</f>
         <v>315680.24933249998</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="5" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="20"/>
-      <c r="B16" s="18"/>
+      <c r="B16" s="19"/>
       <c r="C16">
         <v>14</v>
       </c>
@@ -5222,18 +5226,18 @@
         <f t="shared" si="16"/>
         <v>180.88119749999998</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="22">
         <f t="shared" si="0"/>
         <v>133265.33030249999</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="22">
         <f>SUM($M$3:M16)</f>
         <v>448945.57963499997</v>
       </c>
     </row>
     <row r="17" spans="1:19" s="5" customFormat="1" ht="16.5" customHeight="1">
       <c r="A17" s="20"/>
-      <c r="B17" s="18"/>
+      <c r="B17" s="19"/>
       <c r="C17">
         <v>15</v>
       </c>
@@ -5273,11 +5277,11 @@
         <f t="shared" si="16"/>
         <v>190.92583125000002</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="22">
         <f t="shared" si="0"/>
         <v>175433.49365000002</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="22">
         <f>SUM($M$3:M17)</f>
         <v>624379.07328499993</v>
       </c>
@@ -5306,7 +5310,7 @@
       <c r="A18" s="21">
         <v>4</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="19">
         <f t="shared" ref="B18" si="17">SUM(L18:L22)/5</f>
         <v>221.05973249999997</v>
       </c>
@@ -5349,18 +5353,18 @@
         <f t="shared" si="16"/>
         <v>200.97046500000005</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="22">
         <f t="shared" si="0"/>
         <v>226891.77312500007</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="22">
         <f>SUM($M$3:M18)</f>
         <v>851270.84641</v>
       </c>
     </row>
     <row r="19" spans="1:19" s="5" customFormat="1" ht="16.5" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="18"/>
+      <c r="B19" s="19"/>
       <c r="C19">
         <v>17</v>
       </c>
@@ -5400,18 +5404,18 @@
         <f t="shared" ref="L19:L82" si="23">SUM(H19:K19)/100</f>
         <v>211.01509874999999</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="22">
         <f t="shared" si="0"/>
         <v>288905.94815999997</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="22">
         <f>SUM($M$3:M19)</f>
         <v>1140176.7945699999</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="5" customFormat="1" ht="16.5" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="18"/>
+      <c r="B20" s="19"/>
       <c r="C20">
         <v>18</v>
       </c>
@@ -5451,18 +5455,18 @@
         <f t="shared" si="23"/>
         <v>221.0597325</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="22">
         <f t="shared" si="0"/>
         <v>362822.15525750001</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="22">
         <f>SUM($M$3:M20)</f>
         <v>1502998.9498274999</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="13.5" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="18"/>
+      <c r="B21" s="19"/>
       <c r="C21">
         <v>19</v>
       </c>
@@ -5502,18 +5506,18 @@
         <f t="shared" si="23"/>
         <v>231.10436624999994</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="22">
         <f t="shared" si="0"/>
         <v>450066.8879899999</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="22">
         <f>SUM($M$3:M21)</f>
         <v>1953065.8378174999</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="13.5" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="18"/>
+      <c r="B22" s="19"/>
       <c r="C22">
         <v>20</v>
       </c>
@@ -5553,11 +5557,11 @@
         <f t="shared" si="23"/>
         <v>241.149</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="22">
         <f t="shared" si="0"/>
         <v>552146.99699999997</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="22">
         <f>SUM($M$3:M22)</f>
         <v>2505212.8348174999</v>
       </c>
@@ -5583,10 +5587,10 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A23" s="19">
+      <c r="A23" s="18">
         <v>5</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="19">
         <f t="shared" ref="B23" si="24">SUM(L23:L27)/5</f>
         <v>271.28290125000001</v>
       </c>
@@ -5629,18 +5633,18 @@
         <f t="shared" si="23"/>
         <v>251.19363375</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="22">
         <f t="shared" si="0"/>
         <v>670649.69000000006</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="22">
         <f>SUM($M$3:M23)</f>
         <v>3175862.5248174998</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
       <c r="C24">
         <v>22</v>
       </c>
@@ -5680,18 +5684,18 @@
         <f t="shared" si="23"/>
         <v>261.23826749999995</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="22">
         <f t="shared" si="0"/>
         <v>807242.5317724999</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="22">
         <f>SUM($M$3:M24)</f>
         <v>3983105.0565899997</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
       <c r="C25">
         <v>23</v>
       </c>
@@ -5731,18 +5735,18 @@
         <f t="shared" si="23"/>
         <v>271.28290125000001</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="22">
         <f t="shared" si="0"/>
         <v>963673.44417000003</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="22">
         <f>SUM($M$3:M25)</f>
         <v>4946778.5007600002</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
       <c r="C26">
         <v>24</v>
       </c>
@@ -5782,18 +5786,18 @@
         <f t="shared" si="23"/>
         <v>281.32753500000001</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="22">
         <f t="shared" si="0"/>
         <v>1141770.7061150002</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="22">
         <f>SUM($M$3:M26)</f>
         <v>6088549.2068750001</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="18"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
       <c r="C27">
         <v>25</v>
       </c>
@@ -5833,11 +5837,11 @@
         <f t="shared" si="23"/>
         <v>291.37216875000001</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="22">
         <f t="shared" si="0"/>
         <v>1343442.9536000001</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="22">
         <f>SUM($M$3:M27)</f>
         <v>7431992.1604750007</v>
       </c>
@@ -5863,10 +5867,10 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A28" s="19">
+      <c r="A28" s="18">
         <v>6</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="19">
         <f t="shared" ref="B28" si="25">SUM(L28:L32)/5</f>
         <v>321.50606999999997</v>
       </c>
@@ -5909,18 +5913,18 @@
         <f t="shared" si="23"/>
         <v>301.41680250000002</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="22">
         <f t="shared" si="0"/>
         <v>1570679.1796875</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="22">
         <f>SUM($M$3:M28)</f>
         <v>9002671.3401625007</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A29" s="19"/>
-      <c r="B29" s="18"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
       <c r="C29">
         <v>27</v>
       </c>
@@ -5960,18 +5964,18 @@
         <f t="shared" si="23"/>
         <v>311.46143625000002</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="22">
         <f t="shared" si="0"/>
         <v>1825548.7345100001</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="22">
         <f>SUM($M$3:M29)</f>
         <v>10828220.074672502</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A30" s="19"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
       <c r="C30">
         <v>28</v>
       </c>
@@ -6011,18 +6015,18 @@
         <f t="shared" si="23"/>
         <v>321.50606999999997</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="22">
         <f t="shared" si="0"/>
         <v>2110201.3252699999</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="22">
         <f>SUM($M$3:M30)</f>
         <v>12938421.399942502</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A31" s="19"/>
-      <c r="B31" s="18"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
       <c r="C31">
         <v>29</v>
       </c>
@@ -6062,18 +6066,18 @@
         <f t="shared" si="23"/>
         <v>331.55070374999997</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="22">
         <f t="shared" si="0"/>
         <v>2426867.0162399998</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="22">
         <f>SUM($M$3:M31)</f>
         <v>15365288.416182503</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A32" s="19"/>
-      <c r="B32" s="18"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
       <c r="C32">
         <v>30</v>
       </c>
@@ -6113,11 +6117,11 @@
         <f t="shared" si="23"/>
         <v>341.59533749999997</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="22">
         <f t="shared" si="0"/>
         <v>2777856.2287624995</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="22">
         <f>SUM($M$3:M32)</f>
         <v>18143144.644945003</v>
       </c>
@@ -6143,10 +6147,10 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A33" s="19">
+      <c r="A33" s="18">
         <v>7</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="19">
         <f t="shared" ref="B33" si="26">SUM(L33:L37)/5</f>
         <v>371.72923874999998</v>
       </c>
@@ -6189,18 +6193,18 @@
         <f t="shared" si="23"/>
         <v>351.63997125000003</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="22">
         <f t="shared" si="0"/>
         <v>3165559.7412500004</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="22">
         <f>SUM($M$3:M33)</f>
         <v>21308704.386195004</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A34" s="19"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
       <c r="C34">
         <v>32</v>
       </c>
@@ -6240,18 +6244,18 @@
         <f t="shared" si="23"/>
         <v>361.68460500000003</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="22">
         <f t="shared" si="0"/>
         <v>3592448.6891850005</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="22">
         <f>SUM($M$3:M34)</f>
         <v>24901153.075380005</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A35" s="19"/>
-      <c r="B35" s="18"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="19"/>
       <c r="C35">
         <v>33</v>
       </c>
@@ -6291,18 +6295,18 @@
         <f t="shared" si="23"/>
         <v>371.72923874999992</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="22">
         <f t="shared" si="0"/>
         <v>4061074.565119999</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="22">
         <f>SUM($M$3:M35)</f>
         <v>28962227.640500005</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A36" s="19"/>
-      <c r="B36" s="18"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
       <c r="C36">
         <v>34</v>
       </c>
@@ -6342,18 +6346,18 @@
         <f t="shared" si="23"/>
         <v>381.77387249999998</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="22">
         <f t="shared" si="0"/>
         <v>4574069.2186774993</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="22">
         <f>SUM($M$3:M36)</f>
         <v>33536296.859177504</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A37" s="19"/>
-      <c r="B37" s="18"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="19"/>
       <c r="C37">
         <v>35</v>
       </c>
@@ -6393,11 +6397,11 @@
         <f t="shared" si="23"/>
         <v>391.81850624999998</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="22">
         <f t="shared" si="0"/>
         <v>5134144.8565499997</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="22">
         <f>SUM($M$3:M37)</f>
         <v>38670441.715727501</v>
       </c>
@@ -6423,10 +6427,10 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A38" s="19">
+      <c r="A38" s="18">
         <v>8</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="19">
         <f>SUM(L38:L42)/5</f>
         <v>421.95240750000005</v>
       </c>
@@ -6469,18 +6473,18 @@
         <f t="shared" si="23"/>
         <v>401.86314000000004</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="22">
         <f t="shared" si="0"/>
         <v>5744094.0425000004</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="22">
         <f>SUM($M$3:M38)</f>
         <v>44414535.758227497</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A39" s="19"/>
-      <c r="B39" s="18"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
       <c r="C39">
         <v>37</v>
       </c>
@@ -6520,18 +6524,18 @@
         <f t="shared" si="23"/>
         <v>411.90777374999999</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="22">
         <f t="shared" si="0"/>
         <v>6406789.6973600006</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="22">
         <f>SUM($M$3:M39)</f>
         <v>50821325.455587499</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A40" s="19"/>
-      <c r="B40" s="18"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
       <c r="C40">
         <v>38</v>
       </c>
@@ -6571,18 +6575,18 @@
         <f t="shared" si="23"/>
         <v>421.95240749999999</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="22">
         <f t="shared" si="0"/>
         <v>7125185.0990324998</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="22">
         <f>SUM($M$3:M40)</f>
         <v>57946510.554619998</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A41" s="19"/>
-      <c r="B41" s="18"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="19"/>
       <c r="C41">
         <v>39</v>
       </c>
@@ -6622,18 +6626,18 @@
         <f t="shared" si="23"/>
         <v>431.99704124999994</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="22">
         <f t="shared" si="0"/>
         <v>7902313.8824899988</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="22">
         <f>SUM($M$3:M41)</f>
         <v>65848824.437109999</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A42" s="19"/>
-      <c r="B42" s="18"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="19"/>
       <c r="C42">
         <v>40</v>
       </c>
@@ -6673,11 +6677,11 @@
         <f t="shared" si="23"/>
         <v>442.04167500000005</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="22">
         <f t="shared" si="0"/>
         <v>8741290.0397750009</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="22">
         <f>SUM($M$3:M42)</f>
         <v>74590114.476885006</v>
       </c>
@@ -6703,10 +6707,10 @@
       </c>
     </row>
     <row r="43" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A43" s="19">
+      <c r="A43" s="18">
         <v>9</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="19">
         <f>SUM(L43:L47)/5</f>
         <v>472.17557625000001</v>
       </c>
@@ -6749,18 +6753,18 @@
         <f t="shared" si="23"/>
         <v>452.08630875</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="22">
         <f t="shared" si="0"/>
         <v>9645307.9199999999</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="22">
         <f>SUM($M$3:M43)</f>
         <v>84235422.396885008</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A44" s="19"/>
-      <c r="B44" s="18"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="19"/>
       <c r="C44">
         <v>42</v>
       </c>
@@ -6800,18 +6804,18 @@
         <f t="shared" si="23"/>
         <v>462.1309425</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="22">
         <f t="shared" si="0"/>
         <v>10617642.229347499</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="22">
         <f>SUM($M$3:M44)</f>
         <v>94853064.626232505</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A45" s="19"/>
-      <c r="B45" s="18"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="19"/>
       <c r="C45">
         <v>43</v>
       </c>
@@ -6851,18 +6855,18 @@
         <f t="shared" si="23"/>
         <v>472.17557624999995</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="22">
         <f t="shared" si="0"/>
         <v>11661648.03107</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="22">
         <f>SUM($M$3:M45)</f>
         <v>106514712.6573025</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A46" s="19"/>
-      <c r="B46" s="18"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="19"/>
       <c r="C46">
         <v>44</v>
       </c>
@@ -6902,18 +6906,18 @@
         <f t="shared" si="23"/>
         <v>482.22020999999995</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="22">
         <f t="shared" si="0"/>
         <v>12780760.74549</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="22">
         <f>SUM($M$3:M46)</f>
         <v>119295473.4027925</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A47" s="19"/>
-      <c r="B47" s="18"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="19"/>
       <c r="C47">
         <v>45</v>
       </c>
@@ -6953,11 +6957,11 @@
         <f t="shared" si="23"/>
         <v>492.26484375000001</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="22">
         <f t="shared" si="0"/>
         <v>13978496.15</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="22">
         <f>SUM($M$3:M47)</f>
         <v>133273969.5527925</v>
       </c>
@@ -6983,10 +6987,10 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A48" s="19">
+      <c r="A48" s="18">
         <v>10</v>
       </c>
-      <c r="B48" s="18">
+      <c r="B48" s="19">
         <f t="shared" ref="B48" si="27">SUM(L48:L52)/5</f>
         <v>522.39874500000008</v>
       </c>
@@ -7029,18 +7033,18 @@
         <f t="shared" si="23"/>
         <v>502.30947750000007</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="22">
         <f t="shared" si="0"/>
         <v>15258450.379062502</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="22">
         <f>SUM($M$3:M48)</f>
         <v>148532419.93185499</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A49" s="19"/>
-      <c r="B49" s="18"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="19"/>
       <c r="C49">
         <v>47</v>
       </c>
@@ -7080,18 +7084,18 @@
         <f t="shared" si="23"/>
         <v>512.35411124999996</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="22">
         <f t="shared" si="0"/>
         <v>16624299.924209999</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="22">
         <f>SUM($M$3:M49)</f>
         <v>165156719.85606501</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A50" s="19"/>
-      <c r="B50" s="18"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="19"/>
       <c r="C50">
         <v>48</v>
       </c>
@@ -7131,18 +7135,18 @@
         <f t="shared" si="23"/>
         <v>522.39874499999996</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="22">
         <f t="shared" si="0"/>
         <v>18079801.634045001</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="22">
         <f>SUM($M$3:M50)</f>
         <v>183236521.49011001</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A51" s="19"/>
-      <c r="B51" s="18"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="19"/>
       <c r="C51">
         <v>49</v>
       </c>
@@ -7182,18 +7186,18 @@
         <f t="shared" si="23"/>
         <v>532.44337875000008</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="22">
         <f t="shared" si="0"/>
         <v>19628792.714240003</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="22">
         <f>SUM($M$3:M51)</f>
         <v>202865314.20435002</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A52" s="19"/>
-      <c r="B52" s="18"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="19"/>
       <c r="C52">
         <v>50</v>
       </c>
@@ -7233,11 +7237,11 @@
         <f t="shared" si="23"/>
         <v>542.48801249999997</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="22">
         <f t="shared" si="0"/>
         <v>21275190.727537498</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="22">
         <f>SUM($M$3:M52)</f>
         <v>224140504.93188751</v>
       </c>
@@ -7263,10 +7267,10 @@
       </c>
     </row>
     <row r="53" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A53" s="19">
+      <c r="A53" s="18">
         <v>11</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B53" s="19">
         <f t="shared" ref="B53" si="28">SUM(L53:L57)/5</f>
         <v>572.62191374999998</v>
       </c>
@@ -7309,18 +7313,18 @@
         <f t="shared" si="23"/>
         <v>552.53264625000008</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="22">
         <f t="shared" si="0"/>
         <v>23022993.593750004</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="22">
         <f>SUM($M$3:M53)</f>
         <v>247163498.52563751</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A54" s="19"/>
-      <c r="B54" s="18"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="19"/>
       <c r="C54">
         <v>52</v>
       </c>
@@ -7360,18 +7364,18 @@
         <f t="shared" si="23"/>
         <v>562.57727999999997</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="22">
         <f t="shared" si="0"/>
         <v>24876279.589760002</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="22">
         <f>SUM($M$3:M54)</f>
         <v>272039778.11539751</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A55" s="19"/>
-      <c r="B55" s="18"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="19"/>
       <c r="C55">
         <v>53</v>
       </c>
@@ -7411,18 +7415,18 @@
         <f t="shared" si="23"/>
         <v>572.62191374999998</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="22">
         <f t="shared" si="0"/>
         <v>26839207.349519998</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="22">
         <f>SUM($M$3:M55)</f>
         <v>298878985.46491754</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A56" s="19"/>
-      <c r="B56" s="18"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="19"/>
       <c r="C56">
         <v>54</v>
       </c>
@@ -7462,18 +7466,18 @@
         <f t="shared" si="23"/>
         <v>582.66654750000009</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="22">
         <f t="shared" si="0"/>
         <v>28916015.864052504</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="22">
         <f>SUM($M$3:M56)</f>
         <v>327795001.32897007</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A57" s="19"/>
-      <c r="B57" s="18"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="19"/>
       <c r="C57">
         <v>55</v>
       </c>
@@ -7513,11 +7517,11 @@
         <f t="shared" si="23"/>
         <v>592.71118124999998</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="22">
         <f t="shared" si="0"/>
         <v>31111024.481450003</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="22">
         <f>SUM($M$3:M57)</f>
         <v>358906025.8104201</v>
       </c>
@@ -7543,10 +7547,10 @@
       </c>
     </row>
     <row r="58" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A58" s="19">
+      <c r="A58" s="18">
         <v>12</v>
       </c>
-      <c r="B58" s="18">
+      <c r="B58" s="19">
         <f t="shared" ref="B58" si="29">SUM(L58:L62)/5</f>
         <v>622.8450825000001</v>
       </c>
@@ -7589,18 +7593,18 @@
         <f t="shared" si="23"/>
         <v>602.75581499999998</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="22">
         <f t="shared" si="0"/>
         <v>33428632.906874999</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="22">
         <f>SUM($M$3:M58)</f>
         <v>392334658.71729511</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A59" s="19"/>
-      <c r="B59" s="18"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="19"/>
       <c r="C59">
         <v>57</v>
       </c>
@@ -7640,18 +7644,18 @@
         <f t="shared" si="23"/>
         <v>612.8004487500001</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="22">
         <f t="shared" si="0"/>
         <v>35873321.202560008</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="22">
         <f>SUM($M$3:M59)</f>
         <v>428207979.91985512</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A60" s="19"/>
-      <c r="B60" s="18"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="19"/>
       <c r="C60">
         <v>58</v>
       </c>
@@ -7691,18 +7695,18 @@
         <f t="shared" si="23"/>
         <v>622.84508249999988</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="22">
         <f t="shared" si="0"/>
         <v>38449649.787807494</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="22">
         <f>SUM($M$3:M60)</f>
         <v>466657629.70766258</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A61" s="19"/>
-      <c r="B61" s="18"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="19"/>
       <c r="C61">
         <v>59</v>
       </c>
@@ -7742,18 +7746,18 @@
         <f t="shared" si="23"/>
         <v>632.88971625000011</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="22">
         <f t="shared" si="0"/>
         <v>41162259.438990004</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="22">
         <f>SUM($M$3:M61)</f>
         <v>507819889.14665258</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A62" s="19"/>
-      <c r="B62" s="18"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="19"/>
       <c r="C62">
         <v>60</v>
       </c>
@@ -7793,11 +7797,11 @@
         <f t="shared" si="23"/>
         <v>642.93434999999988</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="22">
         <f t="shared" si="0"/>
         <v>44015871.289549991</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="22">
         <f>SUM($M$3:M62)</f>
         <v>551835760.43620253</v>
       </c>
@@ -7823,10 +7827,10 @@
       </c>
     </row>
     <row r="63" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A63" s="19">
+      <c r="A63" s="18">
         <v>13</v>
       </c>
-      <c r="B63" s="18">
+      <c r="B63" s="19">
         <f t="shared" ref="B63" si="30">SUM(L63:L67)/5</f>
         <v>673.06825125</v>
       </c>
@@ -7869,18 +7873,18 @@
         <f t="shared" si="23"/>
         <v>652.97898375</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="22">
         <f t="shared" si="0"/>
         <v>47015286.830000006</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="22">
         <f>SUM($M$3:M63)</f>
         <v>598851047.26620257</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A64" s="19"/>
-      <c r="B64" s="18"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="19"/>
       <c r="C64">
         <v>62</v>
       </c>
@@ -7920,18 +7924,18 @@
         <f t="shared" si="23"/>
         <v>663.0236175</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="22">
         <f t="shared" si="0"/>
         <v>50165387.907922499</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="22">
         <f>SUM($M$3:M64)</f>
         <v>649016435.17412508</v>
       </c>
     </row>
     <row r="65" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A65" s="19"/>
-      <c r="B65" s="18"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="19"/>
       <c r="C65">
         <v>63</v>
       </c>
@@ -7971,18 +7975,18 @@
         <f t="shared" si="23"/>
         <v>673.06825124999989</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="22">
         <f t="shared" si="0"/>
         <v>53471136.727969997</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="22">
         <f>SUM($M$3:M65)</f>
         <v>702487571.90209508</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A66" s="19"/>
-      <c r="B66" s="18"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="19"/>
       <c r="C66">
         <v>64</v>
       </c>
@@ -8022,18 +8026,18 @@
         <f t="shared" si="23"/>
         <v>683.11288500000012</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="22">
         <f t="shared" si="0"/>
         <v>56937575.851865016</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="22">
         <f>SUM($M$3:M66)</f>
         <v>759425147.75396013</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A67" s="19"/>
-      <c r="B67" s="18"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="19"/>
       <c r="C67">
         <v>65</v>
       </c>
@@ -8073,11 +8077,11 @@
         <f t="shared" si="23"/>
         <v>693.15751875000001</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="22">
         <f t="shared" ref="M67:M102" si="31">((C67-1)^3*L67)/3+800</f>
         <v>60569828.198399998</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="22">
         <f>SUM($M$3:M67)</f>
         <v>819994975.95236015</v>
       </c>
@@ -8103,10 +8107,10 @@
       </c>
     </row>
     <row r="68" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A68" s="19">
+      <c r="A68" s="18">
         <v>14</v>
       </c>
-      <c r="B68" s="18">
+      <c r="B68" s="19">
         <f>SUM(L68:L72)/5</f>
         <v>723.2914199999999</v>
       </c>
@@ -8149,18 +8153,18 @@
         <f t="shared" si="23"/>
         <v>703.20215249999978</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="22">
         <f t="shared" si="31"/>
         <v>64373097.043437481</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="22">
         <f>SUM($M$3:M68)</f>
         <v>884368072.99579763</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A69" s="19"/>
-      <c r="B69" s="18"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="19"/>
       <c r="C69">
         <v>67</v>
       </c>
@@ -8200,18 +8204,18 @@
         <f t="shared" si="23"/>
         <v>713.24678625000001</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="22">
         <f t="shared" si="31"/>
         <v>68352666.019909993</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="22">
         <f>SUM($M$3:M69)</f>
         <v>952720739.01570761</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A70" s="19"/>
-      <c r="B70" s="18"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="19"/>
       <c r="C70">
         <v>68</v>
       </c>
@@ -8251,18 +8255,18 @@
         <f t="shared" si="23"/>
         <v>723.2914199999999</v>
       </c>
-      <c r="M70">
+      <c r="M70" s="22">
         <f t="shared" si="31"/>
         <v>72513899.117819995</v>
       </c>
-      <c r="N70">
+      <c r="N70" s="22">
         <f>SUM($M$3:M70)</f>
         <v>1025234638.1335276</v>
       </c>
     </row>
     <row r="71" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A71" s="19"/>
-      <c r="B71" s="18"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="19"/>
       <c r="C71">
         <v>69</v>
       </c>
@@ -8302,18 +8306,18 @@
         <f t="shared" si="23"/>
         <v>733.33605375000002</v>
       </c>
-      <c r="M71">
+      <c r="M71" s="22">
         <f t="shared" si="31"/>
         <v>76862240.684239998</v>
       </c>
-      <c r="N71">
+      <c r="N71" s="22">
         <f>SUM($M$3:M71)</f>
         <v>1102096878.8177676</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A72" s="19"/>
-      <c r="B72" s="18"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="19"/>
       <c r="C72">
         <v>70</v>
       </c>
@@ -8353,11 +8357,11 @@
         <f t="shared" si="23"/>
         <v>743.38068750000002</v>
       </c>
-      <c r="M72">
+      <c r="M72" s="22">
         <f t="shared" si="31"/>
         <v>81403215.4233125</v>
       </c>
-      <c r="N72">
+      <c r="N72" s="22">
         <f>SUM($M$3:M72)</f>
         <v>1183500094.24108</v>
       </c>
@@ -8383,10 +8387,10 @@
       </c>
     </row>
     <row r="73" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A73" s="19">
+      <c r="A73" s="18">
         <v>15</v>
       </c>
-      <c r="B73" s="18">
+      <c r="B73" s="19">
         <f>SUM(L73:L77)/5</f>
         <v>773.51458875000003</v>
       </c>
@@ -8429,18 +8433,18 @@
         <f t="shared" si="23"/>
         <v>753.4253212499998</v>
       </c>
-      <c r="M73">
+      <c r="M73" s="22">
         <f t="shared" si="31"/>
         <v>86142428.39624998</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="22">
         <f>SUM($M$3:M73)</f>
         <v>1269642522.6373301</v>
       </c>
     </row>
     <row r="74" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A74" s="19"/>
-      <c r="B74" s="18"/>
+      <c r="A74" s="18"/>
+      <c r="B74" s="19"/>
       <c r="C74">
         <v>72</v>
       </c>
@@ -8480,18 +8484,18 @@
         <f t="shared" si="23"/>
         <v>763.46995500000003</v>
       </c>
-      <c r="M74">
+      <c r="M74" s="22">
         <f t="shared" si="31"/>
         <v>91085565.021335006</v>
       </c>
-      <c r="N74">
+      <c r="N74" s="22">
         <f>SUM($M$3:M74)</f>
         <v>1360728087.6586652</v>
       </c>
     </row>
     <row r="75" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A75" s="19"/>
-      <c r="B75" s="18"/>
+      <c r="A75" s="18"/>
+      <c r="B75" s="19"/>
       <c r="C75">
         <v>73</v>
       </c>
@@ -8531,18 +8535,18 @@
         <f t="shared" si="23"/>
         <v>773.51458875000014</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="22">
         <f t="shared" si="31"/>
         <v>96238391.073920012</v>
       </c>
-      <c r="N75">
+      <c r="N75" s="22">
         <f>SUM($M$3:M75)</f>
         <v>1456966478.7325852</v>
       </c>
     </row>
     <row r="76" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A76" s="19"/>
-      <c r="B76" s="18"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="19"/>
       <c r="C76">
         <v>74</v>
       </c>
@@ -8582,18 +8586,18 @@
         <f t="shared" si="23"/>
         <v>783.55922250000003</v>
       </c>
-      <c r="M76">
+      <c r="M76" s="22">
         <f t="shared" si="31"/>
         <v>101606752.68642752</v>
       </c>
-      <c r="N76">
+      <c r="N76" s="22">
         <f>SUM($M$3:M76)</f>
         <v>1558573231.4190128</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A77" s="19"/>
-      <c r="B77" s="18"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="19"/>
       <c r="C77">
         <v>75</v>
       </c>
@@ -8633,11 +8637,11 @@
         <f t="shared" si="23"/>
         <v>793.60385624999992</v>
       </c>
-      <c r="M77">
+      <c r="M77" s="22">
         <f t="shared" si="31"/>
         <v>107196576.34834999</v>
       </c>
-      <c r="N77">
+      <c r="N77" s="22">
         <f>SUM($M$3:M77)</f>
         <v>1665769807.7673628</v>
       </c>
@@ -8663,10 +8667,10 @@
       </c>
     </row>
     <row r="78" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A78" s="19">
+      <c r="A78" s="18">
         <v>16</v>
       </c>
-      <c r="B78" s="18">
+      <c r="B78" s="19">
         <f t="shared" ref="B78" si="35">SUM(L78:L82)/5</f>
         <v>823.73775749999982</v>
       </c>
@@ -8709,18 +8713,18 @@
         <f t="shared" si="23"/>
         <v>803.64848999999992</v>
       </c>
-      <c r="M78">
+      <c r="M78" s="22">
         <f t="shared" si="31"/>
         <v>113013868.90624999</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="22">
         <f>SUM($M$3:M78)</f>
         <v>1778783676.6736128</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A79" s="19"/>
-      <c r="B79" s="18"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="19"/>
       <c r="C79">
         <v>77</v>
       </c>
@@ -8760,18 +8764,18 @@
         <f t="shared" si="23"/>
         <v>813.69312375000004</v>
       </c>
-      <c r="M79">
+      <c r="M79" s="22">
         <f t="shared" si="31"/>
         <v>119064717.56376</v>
       </c>
-      <c r="N79">
+      <c r="N79" s="22">
         <f>SUM($M$3:M79)</f>
         <v>1897848394.2373729</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A80" s="19"/>
-      <c r="B80" s="18"/>
+      <c r="A80" s="18"/>
+      <c r="B80" s="19"/>
       <c r="C80">
         <v>78</v>
       </c>
@@ -8811,18 +8815,18 @@
         <f t="shared" si="23"/>
         <v>823.73775750000004</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="22">
         <f t="shared" si="31"/>
         <v>125355289.8815825</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="22">
         <f>SUM($M$3:M80)</f>
         <v>2023203684.1189554</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A81" s="19"/>
-      <c r="B81" s="18"/>
+      <c r="A81" s="18"/>
+      <c r="B81" s="19"/>
       <c r="C81">
         <v>79</v>
       </c>
@@ -8862,18 +8866,18 @@
         <f t="shared" si="23"/>
         <v>833.78239125000005</v>
       </c>
-      <c r="M81">
+      <c r="M81" s="22">
         <f t="shared" si="31"/>
         <v>131891833.77749</v>
       </c>
-      <c r="N81">
+      <c r="N81" s="22">
         <f>SUM($M$3:M81)</f>
         <v>2155095517.8964453</v>
       </c>
     </row>
     <row r="82" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A82" s="19"/>
-      <c r="B82" s="18"/>
+      <c r="A82" s="18"/>
+      <c r="B82" s="19"/>
       <c r="C82">
         <v>80</v>
       </c>
@@ -8913,11 +8917,11 @@
         <f t="shared" si="23"/>
         <v>843.82702500000005</v>
       </c>
-      <c r="M82">
+      <c r="M82" s="22">
         <f t="shared" si="31"/>
         <v>138680677.52632502</v>
       </c>
-      <c r="N82">
+      <c r="N82" s="22">
         <f>SUM($M$3:M82)</f>
         <v>2293776195.4227705</v>
       </c>
@@ -8943,10 +8947,10 @@
       </c>
     </row>
     <row r="83" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A83" s="19">
+      <c r="A83" s="18">
         <v>17</v>
       </c>
-      <c r="B83" s="18">
+      <c r="B83" s="19">
         <f t="shared" ref="B83" si="36">SUM(L83:L87)/5</f>
         <v>873.96092625000006</v>
       </c>
@@ -8989,18 +8993,18 @@
         <f t="shared" ref="L83:L102" si="42">SUM(H83:K83)/100</f>
         <v>853.87165874999994</v>
       </c>
-      <c r="M83">
+      <c r="M83" s="22">
         <f t="shared" si="31"/>
         <v>145728229.75999999</v>
       </c>
-      <c r="N83">
+      <c r="N83" s="22">
         <f>SUM($M$3:M83)</f>
         <v>2439504425.1827707</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A84" s="19"/>
-      <c r="B84" s="18"/>
+      <c r="A84" s="18"/>
+      <c r="B84" s="19"/>
       <c r="C84">
         <v>82</v>
       </c>
@@ -9040,18 +9044,18 @@
         <f t="shared" si="42"/>
         <v>863.91629249999994</v>
       </c>
-      <c r="M84">
+      <c r="M84" s="22">
         <f t="shared" si="31"/>
         <v>153040979.4674975</v>
       </c>
-      <c r="N84">
+      <c r="N84" s="22">
         <f>SUM($M$3:M84)</f>
         <v>2592545404.6502681</v>
       </c>
     </row>
     <row r="85" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A85" s="19"/>
-      <c r="B85" s="18"/>
+      <c r="A85" s="18"/>
+      <c r="B85" s="19"/>
       <c r="C85">
         <v>83</v>
       </c>
@@ -9091,18 +9095,18 @@
         <f t="shared" si="42"/>
         <v>873.96092625000006</v>
       </c>
-      <c r="M85">
+      <c r="M85" s="22">
         <f t="shared" si="31"/>
         <v>160625495.99487001</v>
       </c>
-      <c r="N85">
+      <c r="N85" s="22">
         <f>SUM($M$3:M85)</f>
         <v>2753170900.6451383</v>
       </c>
     </row>
     <row r="86" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A86" s="19"/>
-      <c r="B86" s="18"/>
+      <c r="A86" s="18"/>
+      <c r="B86" s="19"/>
       <c r="C86">
         <v>84</v>
       </c>
@@ -9142,18 +9146,18 @@
         <f t="shared" si="42"/>
         <v>884.00556000000006</v>
       </c>
-      <c r="M86">
+      <c r="M86" s="22">
         <f t="shared" si="31"/>
         <v>168488429.04524001</v>
       </c>
-      <c r="N86">
+      <c r="N86" s="22">
         <f>SUM($M$3:M86)</f>
         <v>2921659329.6903782</v>
       </c>
     </row>
     <row r="87" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A87" s="19"/>
-      <c r="B87" s="18"/>
+      <c r="A87" s="18"/>
+      <c r="B87" s="19"/>
       <c r="C87">
         <v>85</v>
       </c>
@@ -9193,11 +9197,11 @@
         <f t="shared" si="42"/>
         <v>894.05019375000006</v>
       </c>
-      <c r="M87">
+      <c r="M87" s="22">
         <f t="shared" si="31"/>
         <v>176636508.67880002</v>
       </c>
-      <c r="N87">
+      <c r="N87" s="22">
         <f>SUM($M$3:M87)</f>
         <v>3098295838.3691783</v>
       </c>
@@ -9223,10 +9227,10 @@
       </c>
     </row>
     <row r="88" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A88" s="19">
+      <c r="A88" s="18">
         <v>18</v>
       </c>
-      <c r="B88" s="18">
+      <c r="B88" s="19">
         <f t="shared" ref="B88" si="43">SUM(L88:L92)/5</f>
         <v>924.18409499999996</v>
       </c>
@@ -9269,18 +9273,18 @@
         <f t="shared" si="42"/>
         <v>904.09482749999995</v>
       </c>
-      <c r="M88">
+      <c r="M88" s="22">
         <f t="shared" si="31"/>
         <v>185076545.31281248</v>
       </c>
-      <c r="N88">
+      <c r="N88" s="22">
         <f>SUM($M$3:M88)</f>
         <v>3283372383.6819906</v>
       </c>
     </row>
     <row r="89" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A89" s="19"/>
-      <c r="B89" s="18"/>
+      <c r="A89" s="18"/>
+      <c r="B89" s="19"/>
       <c r="C89">
         <v>87</v>
       </c>
@@ -9320,18 +9324,18 @@
         <f t="shared" si="42"/>
         <v>914.13946125000007</v>
       </c>
-      <c r="M89">
+      <c r="M89" s="22">
         <f t="shared" si="31"/>
         <v>193815429.72161004</v>
       </c>
-      <c r="N89">
+      <c r="N89" s="22">
         <f>SUM($M$3:M89)</f>
         <v>3477187813.4036007</v>
       </c>
     </row>
     <row r="90" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A90" s="19"/>
-      <c r="B90" s="18"/>
+      <c r="A90" s="18"/>
+      <c r="B90" s="19"/>
       <c r="C90">
         <v>88</v>
       </c>
@@ -9371,18 +9375,18 @@
         <f t="shared" si="42"/>
         <v>924.18409499999996</v>
       </c>
-      <c r="M90">
+      <c r="M90" s="22">
         <f t="shared" si="31"/>
         <v>202860133.03659499</v>
       </c>
-      <c r="N90">
+      <c r="N90" s="22">
         <f>SUM($M$3:M90)</f>
         <v>3680047946.4401956</v>
       </c>
     </row>
     <row r="91" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A91" s="19"/>
-      <c r="B91" s="18"/>
+      <c r="A91" s="18"/>
+      <c r="B91" s="19"/>
       <c r="C91">
         <v>89</v>
       </c>
@@ -9422,18 +9426,18 @@
         <f t="shared" si="42"/>
         <v>934.22872874999996</v>
       </c>
-      <c r="M91">
+      <c r="M91" s="22">
         <f t="shared" si="31"/>
         <v>212217706.74623999</v>
       </c>
-      <c r="N91">
+      <c r="N91" s="22">
         <f>SUM($M$3:M91)</f>
         <v>3892265653.1864357</v>
       </c>
     </row>
     <row r="92" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A92" s="19"/>
-      <c r="B92" s="18"/>
+      <c r="A92" s="18"/>
+      <c r="B92" s="19"/>
       <c r="C92">
         <v>90</v>
       </c>
@@ -9473,11 +9477,11 @@
         <f t="shared" si="42"/>
         <v>944.27336250000008</v>
       </c>
-      <c r="M92">
+      <c r="M92" s="22">
         <f t="shared" si="31"/>
         <v>221895282.69608751</v>
       </c>
-      <c r="N92">
+      <c r="N92" s="22">
         <f>SUM($M$3:M92)</f>
         <v>4114160935.8825231</v>
       </c>
@@ -9503,10 +9507,10 @@
       </c>
     </row>
     <row r="93" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A93" s="19">
+      <c r="A93" s="18">
         <v>19</v>
       </c>
-      <c r="B93" s="18">
+      <c r="B93" s="19">
         <f t="shared" ref="B93" si="44">SUM(L93:L97)/5</f>
         <v>974.40726374999997</v>
       </c>
@@ -9549,18 +9553,18 @@
         <f t="shared" si="42"/>
         <v>954.31799624999985</v>
       </c>
-      <c r="M93">
+      <c r="M93" s="22">
         <f t="shared" si="31"/>
         <v>231900073.08874997</v>
       </c>
-      <c r="N93">
+      <c r="N93" s="22">
         <f>SUM($M$3:M93)</f>
         <v>4346061008.9712734</v>
       </c>
     </row>
     <row r="94" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A94" s="19"/>
-      <c r="B94" s="18"/>
+      <c r="A94" s="18"/>
+      <c r="B94" s="19"/>
       <c r="C94">
         <v>92</v>
       </c>
@@ -9600,18 +9604,18 @@
         <f t="shared" si="42"/>
         <v>964.36262999999997</v>
       </c>
-      <c r="M94">
+      <c r="M94" s="22">
         <f t="shared" si="31"/>
         <v>242239370.48390999</v>
       </c>
-      <c r="N94">
+      <c r="N94" s="22">
         <f>SUM($M$3:M94)</f>
         <v>4588300379.455183</v>
       </c>
     </row>
     <row r="95" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A95" s="19"/>
-      <c r="B95" s="18"/>
+      <c r="A95" s="18"/>
+      <c r="B95" s="19"/>
       <c r="C95">
         <v>93</v>
       </c>
@@ -9651,18 +9655,18 @@
         <f t="shared" si="42"/>
         <v>974.40726374999997</v>
       </c>
-      <c r="M95">
+      <c r="M95" s="22">
         <f t="shared" si="31"/>
         <v>252920547.79831997</v>
       </c>
-      <c r="N95">
+      <c r="N95" s="22">
         <f>SUM($M$3:M95)</f>
         <v>4841220927.2535028</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A96" s="19"/>
-      <c r="B96" s="18"/>
+      <c r="A96" s="18"/>
+      <c r="B96" s="19"/>
       <c r="C96">
         <v>94</v>
       </c>
@@ -9702,18 +9706,18 @@
         <f t="shared" si="42"/>
         <v>984.45189750000009</v>
       </c>
-      <c r="M96">
+      <c r="M96" s="22">
         <f t="shared" si="31"/>
         <v>263951058.30580249</v>
       </c>
-      <c r="N96">
+      <c r="N96" s="22">
         <f>SUM($M$3:M96)</f>
         <v>5105171985.5593052</v>
       </c>
     </row>
     <row r="97" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A97" s="19"/>
-      <c r="B97" s="18"/>
+      <c r="A97" s="18"/>
+      <c r="B97" s="19"/>
       <c r="C97">
         <v>95</v>
       </c>
@@ -9753,11 +9757,11 @@
         <f t="shared" si="42"/>
         <v>994.49653124999998</v>
       </c>
-      <c r="M97">
+      <c r="M97" s="22">
         <f t="shared" si="31"/>
         <v>275338435.63725001</v>
       </c>
-      <c r="N97">
+      <c r="N97" s="22">
         <f>SUM($M$3:M97)</f>
         <v>5380510421.1965551</v>
       </c>
@@ -9783,10 +9787,10 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A98" s="19">
+      <c r="A98" s="18">
         <v>20</v>
       </c>
-      <c r="B98" s="18">
+      <c r="B98" s="19">
         <f>SUM(L98:L102)/5</f>
         <v>1024.6304325000001</v>
       </c>
@@ -9829,18 +9833,18 @@
         <f t="shared" si="42"/>
         <v>1004.5411650000002</v>
       </c>
-      <c r="M98">
+      <c r="M98" s="22">
         <f t="shared" si="31"/>
         <v>287090293.78062505</v>
       </c>
-      <c r="N98">
+      <c r="N98" s="22">
         <f>SUM($M$3:M98)</f>
         <v>5667600714.9771805</v>
       </c>
     </row>
     <row r="99" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A99" s="19"/>
-      <c r="B99" s="18"/>
+      <c r="A99" s="18"/>
+      <c r="B99" s="19"/>
       <c r="C99">
         <v>97</v>
       </c>
@@ -9880,18 +9884,18 @@
         <f t="shared" si="42"/>
         <v>1014.5857987500001</v>
       </c>
-      <c r="M99">
+      <c r="M99" s="22">
         <f t="shared" si="31"/>
         <v>299214327.08096004</v>
       </c>
-      <c r="N99">
+      <c r="N99" s="22">
         <f>SUM($M$3:M99)</f>
         <v>5966815042.0581408</v>
       </c>
     </row>
     <row r="100" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A100" s="19"/>
-      <c r="B100" s="18"/>
+      <c r="A100" s="18"/>
+      <c r="B100" s="19"/>
       <c r="C100">
         <v>98</v>
       </c>
@@ -9931,18 +9935,18 @@
         <f t="shared" si="42"/>
         <v>1024.6304325000001</v>
       </c>
-      <c r="M100">
+      <c r="M100" s="22">
         <f t="shared" si="31"/>
         <v>311718310.24035752</v>
       </c>
-      <c r="N100">
+      <c r="N100" s="22">
         <f>SUM($M$3:M100)</f>
         <v>6278533352.2984982</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A101" s="19"/>
-      <c r="B101" s="18"/>
+      <c r="A101" s="18"/>
+      <c r="B101" s="19"/>
       <c r="C101">
         <v>99</v>
       </c>
@@ -9982,18 +9986,18 @@
         <f t="shared" si="42"/>
         <v>1034.6750662499999</v>
       </c>
-      <c r="M101">
+      <c r="M101" s="22">
         <f t="shared" si="31"/>
         <v>324610098.31798995</v>
       </c>
-      <c r="N101">
+      <c r="N101" s="22">
         <f>SUM($M$3:M101)</f>
         <v>6603143450.6164885</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A102" s="19"/>
-      <c r="B102" s="18"/>
+      <c r="A102" s="18"/>
+      <c r="B102" s="19"/>
       <c r="C102">
         <v>100</v>
       </c>
@@ -10033,11 +10037,11 @@
         <f t="shared" si="42"/>
         <v>1044.7197000000001</v>
       </c>
-      <c r="M102">
+      <c r="M102" s="22">
         <f t="shared" si="31"/>
         <v>337897626.73010004</v>
       </c>
-      <c r="N102">
+      <c r="N102" s="22">
         <f>SUM($M$3:M102)</f>
         <v>6941041077.3465881</v>
       </c>
@@ -10064,18 +10068,18 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="B93:B97"/>
     <mergeCell ref="A93:A97"/>
     <mergeCell ref="A98:A102"/>
     <mergeCell ref="B3:B7"/>
@@ -10092,18 +10096,18 @@
     <mergeCell ref="A78:A82"/>
     <mergeCell ref="A83:A87"/>
     <mergeCell ref="A88:A92"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="B83:B87"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A53:A57"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
